--- a/data/DailyConfirmedCasesMA-2020-05-11.xlsx
+++ b/data/DailyConfirmedCasesMA-2020-05-11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B303B22-69AC-0F4C-914E-CBC37BB4CBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6686E646-03B1-4048-BED7-2771152F832D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <f>B2</f>
+        <f t="shared" ref="C2:C7" si="0">B2</f>
         <v>2</v>
       </c>
       <c r="D2" s="3">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <f>E2</f>
+        <f t="shared" ref="F2:F7" si="1">E2</f>
         <v>0</v>
       </c>
       <c r="G2" s="3"/>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="3">
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <f>E3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="3"/>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="3">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f>E4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="3"/>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="3">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f>E5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="3"/>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="3">
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f>E6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="3"/>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="3">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>E7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="3"/>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <f>AVERAGE(B2:B8)</f>
+        <f t="shared" ref="C8:C39" si="2">AVERAGE(B2:B8)</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="D8" s="3">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>AVERAGE(E2:E8)</f>
+        <f t="shared" ref="F8:F39" si="3">AVERAGE(E2:E8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="3"/>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <f>AVERAGE(B3:B9)</f>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D9" s="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <f>AVERAGE(E3:E9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="3"/>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <f>AVERAGE(B4:B10)</f>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D10" s="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <f>AVERAGE(E4:E10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10" s="3"/>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <f>AVERAGE(B5:B11)</f>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="D11" s="3">
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <f>AVERAGE(E5:E11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="3"/>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3">
-        <f>AVERAGE(B6:B12)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="D12" s="3">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <f>AVERAGE(E6:E12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <f>AVERAGE(B7:B13)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="D13" s="3">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f>AVERAGE(E7:E13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <f>AVERAGE(B8:B14)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="D14" s="3">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <f>AVERAGE(E8:E14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="3"/>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <f>AVERAGE(B9:B15)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="D15" s="3">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <f>AVERAGE(E9:E15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15" s="3"/>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <f>AVERAGE(B10:B16)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="D16" s="3">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <f>AVERAGE(E10:E16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="3"/>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f>AVERAGE(B11:B17)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="D17" s="3">
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f>AVERAGE(E11:E17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G17" s="3"/>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <f>AVERAGE(B12:B18)</f>
+        <f t="shared" si="2"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="D18" s="3">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <f>AVERAGE(E12:E18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G18" s="3"/>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <f>AVERAGE(B13:B19)</f>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D19" s="3">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <f>AVERAGE(E13:E19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G19" s="3"/>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <f>AVERAGE(B14:B20)</f>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D20" s="3">
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <f>AVERAGE(E14:E20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G20" s="3"/>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="3">
-        <f>AVERAGE(B15:B21)</f>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D21" s="3">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <f>AVERAGE(E15:E21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G21" s="3"/>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <f>AVERAGE(B16:B22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D22" s="3">
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f>AVERAGE(E16:E22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G22" s="3"/>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="3">
-        <f>AVERAGE(B17:B23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D23" s="3">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f>AVERAGE(E17:E23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G23" s="3"/>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <f>AVERAGE(B18:B24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D24" s="3">
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f>AVERAGE(E18:E24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G24" s="3"/>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="3">
-        <f>AVERAGE(B19:B25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D25" s="3">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f>AVERAGE(E19:E25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G25" s="3"/>
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <f>AVERAGE(B20:B26)</f>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="D26" s="3">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f>AVERAGE(E20:E26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G26" s="3"/>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="3">
-        <f>AVERAGE(B21:B27)</f>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="D27" s="3">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f>AVERAGE(E21:E27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27" s="3"/>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <f>AVERAGE(B22:B28)</f>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="D28" s="3">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <f>AVERAGE(E22:E28)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G28" s="3"/>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(B23:B29)</f>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="D29" s="3">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <f>AVERAGE(E23:E29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29" s="3"/>
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="3">
-        <f>AVERAGE(B24:B30)</f>
+        <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="D30" s="3">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <f>AVERAGE(E24:E30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30" s="3"/>
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3">
-        <f>AVERAGE(B25:B31)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D31" s="3">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <f>AVERAGE(E25:E31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31" s="3"/>
@@ -1257,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="3">
-        <f>AVERAGE(B26:B32)</f>
+        <f t="shared" si="2"/>
         <v>3.7142857142857144</v>
       </c>
       <c r="D32" s="3">
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <f>AVERAGE(E26:E32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
@@ -1280,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="3">
-        <f>AVERAGE(B27:B33)</f>
+        <f t="shared" si="2"/>
         <v>3.8571428571428572</v>
       </c>
       <c r="D33" s="3">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <f>AVERAGE(E27:E33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="3">
-        <f>AVERAGE(B28:B34)</f>
+        <f t="shared" si="2"/>
         <v>5.4285714285714288</v>
       </c>
       <c r="D34" s="3">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <f>AVERAGE(E28:E34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
@@ -1326,7 +1326,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="3">
-        <f>AVERAGE(B29:B35)</f>
+        <f t="shared" si="2"/>
         <v>10.285714285714286</v>
       </c>
       <c r="D35" s="3">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <f>AVERAGE(E29:E35)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
@@ -1349,7 +1349,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="3">
-        <f>AVERAGE(B30:B36)</f>
+        <f t="shared" si="2"/>
         <v>14.428571428571429</v>
       </c>
       <c r="D36" s="3">
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="3">
-        <f>AVERAGE(E30:E36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G36" s="3"/>
@@ -1372,7 +1372,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="3">
-        <f>AVERAGE(B31:B37)</f>
+        <f t="shared" si="2"/>
         <v>20.142857142857142</v>
       </c>
       <c r="D37" s="3">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <f>AVERAGE(E31:E37)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
@@ -1395,7 +1395,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="3">
-        <f>AVERAGE(B32:B38)</f>
+        <f t="shared" si="2"/>
         <v>26.142857142857142</v>
       </c>
       <c r="D38" s="3">
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="3">
-        <f>AVERAGE(E32:E38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
@@ -1418,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="3">
-        <f>AVERAGE(B33:B39)</f>
+        <f t="shared" si="2"/>
         <v>33.714285714285715</v>
       </c>
       <c r="D39" s="3">
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <f>AVERAGE(E33:E39)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G39" s="3"/>
@@ -1441,7 +1441,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="3">
-        <f>AVERAGE(B34:B40)</f>
+        <f t="shared" ref="C40:C71" si="4">AVERAGE(B34:B40)</f>
         <v>40.142857142857146</v>
       </c>
       <c r="D40" s="3">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <f>AVERAGE(E34:E40)</f>
+        <f t="shared" ref="F40:F71" si="5">AVERAGE(E34:E40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="3"/>
@@ -1464,7 +1464,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="3">
-        <f>AVERAGE(B35:B41)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="D41" s="3">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <f>AVERAGE(E35:E41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G41" s="4">
@@ -1489,7 +1489,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="3">
-        <f>AVERAGE(B36:B42)</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D42" s="3">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <f>AVERAGE(E36:E42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G42" s="4"/>
@@ -1512,7 +1512,7 @@
         <v>139</v>
       </c>
       <c r="C43" s="3">
-        <f>AVERAGE(B37:B43)</f>
+        <f t="shared" si="4"/>
         <v>68.714285714285708</v>
       </c>
       <c r="D43" s="3">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <f>AVERAGE(E37:E43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G43" s="4">
@@ -1537,7 +1537,7 @@
         <v>207</v>
       </c>
       <c r="C44" s="3">
-        <f>AVERAGE(B38:B44)</f>
+        <f t="shared" si="4"/>
         <v>91.714285714285708</v>
       </c>
       <c r="D44" s="3">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <f>AVERAGE(E38:E44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G44" s="4"/>
@@ -1560,7 +1560,7 @@
         <v>264</v>
       </c>
       <c r="C45" s="3">
-        <f>AVERAGE(B39:B45)</f>
+        <f t="shared" si="4"/>
         <v>122.85714285714286</v>
       </c>
       <c r="D45" s="3">
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <f>AVERAGE(E39:E45)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="4">
@@ -1585,7 +1585,7 @@
         <v>330</v>
       </c>
       <c r="C46" s="3">
-        <f>AVERAGE(B40:B46)</f>
+        <f t="shared" si="4"/>
         <v>160.71428571428572</v>
       </c>
       <c r="D46" s="3">
@@ -1595,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="3">
-        <f>AVERAGE(E40:E46)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G46" s="4">
@@ -1610,7 +1610,7 @@
         <v>152</v>
       </c>
       <c r="C47" s="3">
-        <f>AVERAGE(B41:B47)</f>
+        <f t="shared" si="4"/>
         <v>175.28571428571428</v>
       </c>
       <c r="D47" s="3">
@@ -1620,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="F47" s="3">
-        <f>AVERAGE(E41:E47)</f>
+        <f t="shared" si="5"/>
         <v>4.8571428571428568</v>
       </c>
       <c r="G47" s="4">
@@ -1635,7 +1635,7 @@
         <v>407</v>
       </c>
       <c r="C48" s="3">
-        <f>AVERAGE(B42:B48)</f>
+        <f t="shared" si="4"/>
         <v>226</v>
       </c>
       <c r="D48" s="3">
@@ -1645,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="3">
-        <f>AVERAGE(E42:E48)</f>
+        <f t="shared" si="5"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="G48" s="4">
@@ -1660,7 +1660,7 @@
         <v>676</v>
       </c>
       <c r="C49" s="3">
-        <f>AVERAGE(B43:B49)</f>
+        <f t="shared" si="4"/>
         <v>310.71428571428572</v>
       </c>
       <c r="D49" s="3">
@@ -1670,7 +1670,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="3">
-        <f>AVERAGE(E43:E49)</f>
+        <f t="shared" si="5"/>
         <v>11.714285714285714</v>
       </c>
       <c r="G49" s="4">
@@ -1685,7 +1685,7 @@
         <v>643</v>
       </c>
       <c r="C50" s="3">
-        <f>AVERAGE(B44:B50)</f>
+        <f t="shared" si="4"/>
         <v>382.71428571428572</v>
       </c>
       <c r="D50" s="3">
@@ -1695,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="F50" s="3">
-        <f>AVERAGE(E44:E50)</f>
+        <f t="shared" si="5"/>
         <v>17.571428571428573</v>
       </c>
       <c r="G50" s="4">
@@ -1710,7 +1710,7 @@
         <v>714</v>
       </c>
       <c r="C51" s="3">
-        <f>AVERAGE(B45:B51)</f>
+        <f t="shared" si="4"/>
         <v>455.14285714285717</v>
       </c>
       <c r="D51" s="3">
@@ -1720,7 +1720,7 @@
         <v>33</v>
       </c>
       <c r="F51" s="3">
-        <f>AVERAGE(E45:E51)</f>
+        <f t="shared" si="5"/>
         <v>22.285714285714285</v>
       </c>
       <c r="G51" s="4">
@@ -1735,7 +1735,7 @@
         <v>1035</v>
       </c>
       <c r="C52" s="3">
-        <f>AVERAGE(B46:B52)</f>
+        <f t="shared" si="4"/>
         <v>565.28571428571433</v>
       </c>
       <c r="D52" s="7">
@@ -1745,7 +1745,7 @@
         <v>56</v>
       </c>
       <c r="F52" s="3">
-        <f>AVERAGE(E46:E52)</f>
+        <f t="shared" si="5"/>
         <v>30.285714285714285</v>
       </c>
       <c r="G52" s="4">
@@ -1762,7 +1762,7 @@
         <v>665</v>
       </c>
       <c r="C53" s="3">
-        <f>AVERAGE(B47:B53)</f>
+        <f t="shared" si="4"/>
         <v>613.14285714285711</v>
       </c>
       <c r="D53" s="7">
@@ -1772,7 +1772,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="3">
-        <f>AVERAGE(E47:E53)</f>
+        <f t="shared" si="5"/>
         <v>35.142857142857146</v>
       </c>
       <c r="G53" s="4">
@@ -1789,7 +1789,7 @@
         <v>967</v>
       </c>
       <c r="C54" s="3">
-        <f>AVERAGE(B48:B54)</f>
+        <f t="shared" si="4"/>
         <v>729.57142857142856</v>
       </c>
       <c r="D54" s="8">
@@ -1799,7 +1799,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="3">
-        <f>AVERAGE(E48:E54)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="G54" s="4">
@@ -1816,7 +1816,7 @@
         <v>1427</v>
       </c>
       <c r="C55" s="3">
-        <f>AVERAGE(B49:B55)</f>
+        <f t="shared" si="4"/>
         <v>875.28571428571433</v>
       </c>
       <c r="D55" s="8">
@@ -1826,7 +1826,7 @@
         <v>87</v>
       </c>
       <c r="F55" s="3">
-        <f>AVERAGE(E49:E55)</f>
+        <f t="shared" si="5"/>
         <v>50.142857142857146</v>
       </c>
       <c r="G55" s="4">
@@ -1843,7 +1843,7 @@
         <v>1452</v>
       </c>
       <c r="C56" s="3">
-        <f>AVERAGE(B50:B56)</f>
+        <f t="shared" si="4"/>
         <v>986.14285714285711</v>
       </c>
       <c r="D56" s="8">
@@ -1853,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="F56" s="3">
-        <f>AVERAGE(E50:E56)</f>
+        <f t="shared" si="5"/>
         <v>51.428571428571431</v>
       </c>
       <c r="G56" s="4">
@@ -1870,7 +1870,7 @@
         <v>2129</v>
       </c>
       <c r="C57" s="3">
-        <f>AVERAGE(B51:B57)</f>
+        <f t="shared" si="4"/>
         <v>1198.4285714285713</v>
       </c>
       <c r="D57" s="3">
@@ -1880,7 +1880,7 @@
         <v>115</v>
       </c>
       <c r="F57" s="3">
-        <f>AVERAGE(E51:E57)</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="G57" s="4">
@@ -1897,7 +1897,7 @@
         <v>2885</v>
       </c>
       <c r="C58" s="3">
-        <f>AVERAGE(B52:B58)</f>
+        <f t="shared" si="4"/>
         <v>1508.5714285714287</v>
       </c>
       <c r="D58" s="3">
@@ -1907,7 +1907,7 @@
         <v>181</v>
       </c>
       <c r="F58" s="3">
-        <f>AVERAGE(E52:E58)</f>
+        <f t="shared" si="5"/>
         <v>83.142857142857139</v>
       </c>
       <c r="G58" s="4">
@@ -1924,7 +1924,7 @@
         <v>2546</v>
       </c>
       <c r="C59" s="3">
-        <f>AVERAGE(B53:B59)</f>
+        <f t="shared" si="4"/>
         <v>1724.4285714285713</v>
       </c>
       <c r="D59" s="3">
@@ -1934,7 +1934,7 @@
         <v>260</v>
       </c>
       <c r="F59" s="3">
-        <f>AVERAGE(E53:E59)</f>
+        <f t="shared" si="5"/>
         <v>112.28571428571429</v>
       </c>
       <c r="G59" s="4">
@@ -1951,7 +1951,7 @@
         <v>2433</v>
       </c>
       <c r="C60" s="3">
-        <f>AVERAGE(B54:B60)</f>
+        <f t="shared" si="4"/>
         <v>1977</v>
       </c>
       <c r="D60" s="3">
@@ -1961,7 +1961,7 @@
         <v>209</v>
       </c>
       <c r="F60" s="3">
-        <f>AVERAGE(E54:E60)</f>
+        <f t="shared" si="5"/>
         <v>135.28571428571428</v>
       </c>
       <c r="G60" s="4">
@@ -1978,7 +1978,7 @@
         <v>2619</v>
       </c>
       <c r="C61" s="3">
-        <f>AVERAGE(B55:B61)</f>
+        <f t="shared" si="4"/>
         <v>2213</v>
       </c>
       <c r="D61" s="3">
@@ -1988,7 +1988,7 @@
         <v>180</v>
       </c>
       <c r="F61" s="3">
-        <f>AVERAGE(E55:E61)</f>
+        <f t="shared" si="5"/>
         <v>153.28571428571428</v>
       </c>
       <c r="G61" s="4">
@@ -2005,7 +2005,7 @@
         <v>3009</v>
       </c>
       <c r="C62" s="3">
-        <f>AVERAGE(B56:B62)</f>
+        <f t="shared" si="4"/>
         <v>2439</v>
       </c>
       <c r="D62" s="3">
@@ -2015,7 +2015,7 @@
         <v>381</v>
       </c>
       <c r="F62" s="3">
-        <f>AVERAGE(E56:E62)</f>
+        <f t="shared" si="5"/>
         <v>195.28571428571428</v>
       </c>
       <c r="G62" s="4">
@@ -2032,7 +2032,7 @@
         <v>4324</v>
       </c>
       <c r="C63" s="3">
-        <f>AVERAGE(B57:B63)</f>
+        <f t="shared" si="4"/>
         <v>2849.2857142857142</v>
       </c>
       <c r="D63" s="3">
@@ -2042,7 +2042,7 @@
         <v>563</v>
       </c>
       <c r="F63" s="3">
-        <f>AVERAGE(E57:E63)</f>
+        <f t="shared" si="5"/>
         <v>269.85714285714283</v>
       </c>
       <c r="G63" s="4">
@@ -2059,7 +2059,7 @@
         <v>4244</v>
       </c>
       <c r="C64" s="3">
-        <f>AVERAGE(B58:B64)</f>
+        <f t="shared" si="4"/>
         <v>3151.4285714285716</v>
       </c>
       <c r="D64" s="3">
@@ -2069,7 +2069,7 @@
         <v>569</v>
       </c>
       <c r="F64" s="3">
-        <f>AVERAGE(E58:E64)</f>
+        <f t="shared" si="5"/>
         <v>334.71428571428572</v>
       </c>
       <c r="G64" s="4">
@@ -2086,7 +2086,7 @@
         <v>4450</v>
       </c>
       <c r="C65" s="3">
-        <f>AVERAGE(B59:B65)</f>
+        <f t="shared" si="4"/>
         <v>3375</v>
       </c>
       <c r="D65" s="3">
@@ -2096,7 +2096,7 @@
         <v>684</v>
       </c>
       <c r="F65" s="3">
-        <f>AVERAGE(E59:E65)</f>
+        <f t="shared" si="5"/>
         <v>406.57142857142856</v>
       </c>
       <c r="G65" s="4">
@@ -2113,7 +2113,7 @@
         <v>3735</v>
       </c>
       <c r="C66" s="3">
-        <f>AVERAGE(B60:B66)</f>
+        <f t="shared" si="4"/>
         <v>3544.8571428571427</v>
       </c>
       <c r="D66" s="3">
@@ -2123,7 +2123,7 @@
         <v>708</v>
       </c>
       <c r="F66" s="3">
-        <f>AVERAGE(E60:E66)</f>
+        <f t="shared" si="5"/>
         <v>470.57142857142856</v>
       </c>
       <c r="G66" s="4">
@@ -2140,7 +2140,7 @@
         <v>5914</v>
       </c>
       <c r="C67" s="3">
-        <f>AVERAGE(B61:B67)</f>
+        <f t="shared" si="4"/>
         <v>4042.1428571428573</v>
       </c>
       <c r="D67" s="3">
@@ -2150,7 +2150,7 @@
         <v>621</v>
       </c>
       <c r="F67" s="3">
-        <f>AVERAGE(E61:E67)</f>
+        <f t="shared" si="5"/>
         <v>529.42857142857144</v>
       </c>
       <c r="G67" s="4">
@@ -2344,7 +2344,7 @@
         <v>4205.666666666667</v>
       </c>
       <c r="D75" s="6">
-        <f>D74+B75</f>
+        <f t="shared" ref="D75:D103" si="6">D74+B75</f>
         <v>82888</v>
       </c>
       <c r="E75" s="9">
@@ -2370,7 +2370,7 @@
         <v>4271.25</v>
       </c>
       <c r="D76" s="11">
-        <f>D75+B76</f>
+        <f t="shared" si="6"/>
         <v>87356</v>
       </c>
       <c r="E76" s="12">
@@ -2381,7 +2381,7 @@
         <v>787.25</v>
       </c>
       <c r="G76" s="11">
-        <f>G75+E76</f>
+        <f t="shared" ref="G76:G103" si="7">G75+E76</f>
         <v>12107</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
         <v>4211.2</v>
       </c>
       <c r="D77" s="11">
-        <f>D76+B77</f>
+        <f t="shared" si="6"/>
         <v>91327</v>
       </c>
       <c r="E77" s="12">
@@ -2408,7 +2408,7 @@
         <v>782</v>
       </c>
       <c r="G77" s="11">
-        <f>G76+E77</f>
+        <f t="shared" si="7"/>
         <v>12868</v>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>4154.166666666667</v>
       </c>
       <c r="D78" s="11">
-        <f>D77+B78</f>
+        <f t="shared" si="6"/>
         <v>95196</v>
       </c>
       <c r="E78">
@@ -2435,7 +2435,7 @@
         <v>795.16666666666663</v>
       </c>
       <c r="G78" s="11">
-        <f>G77+E78</f>
+        <f t="shared" si="7"/>
         <v>13729</v>
       </c>
     </row>
@@ -2447,22 +2447,22 @@
         <v>4673</v>
       </c>
       <c r="C79" s="3">
-        <f>AVERAGE(B73:B79)</f>
+        <f t="shared" ref="C79:C104" si="8">AVERAGE(B73:B79)</f>
         <v>4228.2857142857147</v>
       </c>
       <c r="D79" s="11">
-        <f>D78+B79</f>
+        <f t="shared" si="6"/>
         <v>99869</v>
       </c>
       <c r="E79">
         <v>847</v>
       </c>
       <c r="F79" s="3">
-        <f>AVERAGE(E73:E79)</f>
+        <f t="shared" ref="F79:F104" si="9">AVERAGE(E73:E79)</f>
         <v>802.57142857142856</v>
       </c>
       <c r="G79" s="11">
-        <f>G78+E79</f>
+        <f t="shared" si="7"/>
         <v>14576</v>
       </c>
     </row>
@@ -2474,22 +2474,22 @@
         <v>4399</v>
       </c>
       <c r="C80" s="3">
-        <f>AVERAGE(B74:B80)</f>
+        <f t="shared" si="8"/>
         <v>4196.1428571428569</v>
       </c>
       <c r="D80" s="11">
-        <f>D79+B80</f>
+        <f t="shared" si="6"/>
         <v>104268</v>
       </c>
       <c r="E80">
         <v>888</v>
       </c>
       <c r="F80" s="3">
-        <f>AVERAGE(E74:E80)</f>
+        <f t="shared" si="9"/>
         <v>798.42857142857144</v>
       </c>
       <c r="G80" s="11">
-        <f>G79+E80</f>
+        <f t="shared" si="7"/>
         <v>15464</v>
       </c>
     </row>
@@ -2501,22 +2501,22 @@
         <v>4467</v>
       </c>
       <c r="C81" s="3">
-        <f>AVERAGE(B75:B81)</f>
+        <f t="shared" si="8"/>
         <v>4198.5714285714284</v>
       </c>
       <c r="D81" s="11">
-        <f>D80+B81</f>
+        <f t="shared" si="6"/>
         <v>108735</v>
       </c>
       <c r="E81">
         <v>596</v>
       </c>
       <c r="F81" s="3">
-        <f>AVERAGE(E75:E81)</f>
+        <f t="shared" si="9"/>
         <v>778.28571428571433</v>
       </c>
       <c r="G81" s="11">
-        <f>G80+E81</f>
+        <f t="shared" si="7"/>
         <v>16060</v>
       </c>
     </row>
@@ -2528,22 +2528,22 @@
         <v>3023</v>
       </c>
       <c r="C82" s="3">
-        <f>AVERAGE(B76:B82)</f>
+        <f t="shared" si="8"/>
         <v>4124.2857142857147</v>
       </c>
       <c r="D82" s="11">
-        <f>D81+B82</f>
+        <f t="shared" si="6"/>
         <v>111758</v>
       </c>
       <c r="E82">
         <v>449</v>
       </c>
       <c r="F82" s="3">
-        <f>AVERAGE(E76:E82)</f>
+        <f t="shared" si="9"/>
         <v>740</v>
       </c>
       <c r="G82" s="11">
-        <f>G81+E82</f>
+        <f t="shared" si="7"/>
         <v>16509</v>
       </c>
     </row>
@@ -2555,22 +2555,22 @@
         <v>3643</v>
       </c>
       <c r="C83" s="3">
-        <f>AVERAGE(B77:B83)</f>
+        <f t="shared" si="8"/>
         <v>4006.4285714285716</v>
       </c>
       <c r="D83" s="11">
-        <f>D82+B83</f>
+        <f t="shared" si="6"/>
         <v>115401</v>
       </c>
       <c r="E83">
         <v>823</v>
       </c>
       <c r="F83" s="3">
-        <f>AVERAGE(E77:E83)</f>
+        <f t="shared" si="9"/>
         <v>746.42857142857144</v>
       </c>
       <c r="G83" s="11">
-        <f>G82+E83</f>
+        <f t="shared" si="7"/>
         <v>17332</v>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
         <v>3776</v>
       </c>
       <c r="C84" s="3">
-        <f>AVERAGE(B78:B84)</f>
+        <f t="shared" si="8"/>
         <v>3978.5714285714284</v>
       </c>
       <c r="D84" s="11">
-        <f>D83+B84</f>
+        <f t="shared" si="6"/>
         <v>119177</v>
       </c>
       <c r="E84">
         <v>759</v>
       </c>
       <c r="F84" s="3">
-        <f>AVERAGE(E78:E84)</f>
+        <f t="shared" si="9"/>
         <v>746.14285714285711</v>
       </c>
       <c r="G84" s="11">
-        <f>G83+E84</f>
+        <f t="shared" si="7"/>
         <v>18091</v>
       </c>
     </row>
@@ -2609,22 +2609,22 @@
         <v>3831</v>
       </c>
       <c r="C85" s="3">
-        <f>AVERAGE(B79:B85)</f>
+        <f t="shared" si="8"/>
         <v>3973.1428571428573</v>
       </c>
       <c r="D85" s="11">
-        <f>D84+B85</f>
+        <f t="shared" si="6"/>
         <v>123008</v>
       </c>
       <c r="E85">
         <v>616</v>
       </c>
       <c r="F85" s="3">
-        <f>AVERAGE(E79:E85)</f>
+        <f t="shared" si="9"/>
         <v>711.14285714285711</v>
       </c>
       <c r="G85" s="11">
-        <f>G84+E85</f>
+        <f t="shared" si="7"/>
         <v>18707</v>
       </c>
     </row>
@@ -2636,22 +2636,22 @@
         <v>3641</v>
       </c>
       <c r="C86" s="3">
-        <f>AVERAGE(B80:B86)</f>
+        <f t="shared" si="8"/>
         <v>3825.7142857142858</v>
       </c>
       <c r="D86" s="11">
-        <f>D85+B86</f>
+        <f t="shared" si="6"/>
         <v>126649</v>
       </c>
       <c r="E86">
         <v>684</v>
       </c>
       <c r="F86" s="3">
-        <f>AVERAGE(E80:E86)</f>
+        <f t="shared" si="9"/>
         <v>687.85714285714289</v>
       </c>
       <c r="G86" s="11">
-        <f>G85+E86</f>
+        <f t="shared" si="7"/>
         <v>19391</v>
       </c>
     </row>
@@ -2663,22 +2663,22 @@
         <v>3583</v>
       </c>
       <c r="C87" s="3">
-        <f>AVERAGE(B81:B87)</f>
+        <f t="shared" si="8"/>
         <v>3709.1428571428573</v>
       </c>
       <c r="D87" s="11">
-        <f>D86+B87</f>
+        <f t="shared" si="6"/>
         <v>130232</v>
       </c>
       <c r="E87">
         <v>813</v>
       </c>
       <c r="F87" s="3">
-        <f>AVERAGE(E81:E87)</f>
+        <f t="shared" si="9"/>
         <v>677.14285714285711</v>
       </c>
       <c r="G87" s="11">
-        <f>G86+E87</f>
+        <f t="shared" si="7"/>
         <v>20204</v>
       </c>
     </row>
@@ -2690,22 +2690,22 @@
         <v>2685</v>
       </c>
       <c r="C88" s="3">
-        <f>AVERAGE(B82:B88)</f>
+        <f t="shared" si="8"/>
         <v>3454.5714285714284</v>
       </c>
       <c r="D88" s="11">
-        <f>D87+B88</f>
+        <f t="shared" si="6"/>
         <v>132917</v>
       </c>
       <c r="E88">
         <v>413</v>
       </c>
       <c r="F88" s="3">
-        <f>AVERAGE(E82:E88)</f>
+        <f t="shared" si="9"/>
         <v>651</v>
       </c>
       <c r="G88" s="11">
-        <f>G87+E88</f>
+        <f t="shared" si="7"/>
         <v>20617</v>
       </c>
     </row>
@@ -2717,22 +2717,22 @@
         <v>2730</v>
       </c>
       <c r="C89" s="3">
-        <f>AVERAGE(B83:B89)</f>
+        <f t="shared" si="8"/>
         <v>3412.7142857142858</v>
       </c>
       <c r="D89" s="11">
-        <f>D88+B89</f>
+        <f t="shared" si="6"/>
         <v>135647</v>
       </c>
       <c r="E89" s="16">
         <v>360</v>
       </c>
       <c r="F89" s="3">
-        <f>AVERAGE(E83:E89)</f>
+        <f t="shared" si="9"/>
         <v>638.28571428571433</v>
       </c>
       <c r="G89" s="11">
-        <f>G88+E89</f>
+        <f t="shared" si="7"/>
         <v>20977</v>
       </c>
     </row>
@@ -2744,22 +2744,22 @@
         <v>2455</v>
       </c>
       <c r="C90" s="3">
-        <f>AVERAGE(B84:B90)</f>
+        <f t="shared" si="8"/>
         <v>3243</v>
       </c>
       <c r="D90" s="11">
-        <f>D89+B90</f>
+        <f t="shared" si="6"/>
         <v>138102</v>
       </c>
       <c r="E90" s="16">
         <v>586</v>
       </c>
       <c r="F90" s="3">
-        <f>AVERAGE(E84:E90)</f>
+        <f t="shared" si="9"/>
         <v>604.42857142857144</v>
       </c>
       <c r="G90" s="11">
-        <f>G89+E90</f>
+        <f t="shared" si="7"/>
         <v>21563</v>
       </c>
     </row>
@@ -2771,22 +2771,22 @@
         <v>1888</v>
       </c>
       <c r="C91" s="3">
-        <f>AVERAGE(B85:B91)</f>
+        <f t="shared" si="8"/>
         <v>2973.2857142857142</v>
       </c>
       <c r="D91" s="11">
-        <f>D90+B91</f>
+        <f t="shared" si="6"/>
         <v>139990</v>
       </c>
       <c r="E91" s="17">
         <v>578</v>
       </c>
       <c r="F91" s="3">
-        <f>AVERAGE(E85:E91)</f>
+        <f t="shared" si="9"/>
         <v>578.57142857142856</v>
       </c>
       <c r="G91" s="11">
-        <f>G90+E91</f>
+        <f t="shared" si="7"/>
         <v>22141</v>
       </c>
     </row>
@@ -2798,22 +2798,22 @@
         <v>3059</v>
       </c>
       <c r="C92" s="3">
-        <f>AVERAGE(B86:B92)</f>
+        <f t="shared" si="8"/>
         <v>2863</v>
       </c>
       <c r="D92" s="11">
-        <f>D91+B92</f>
+        <f t="shared" si="6"/>
         <v>143049</v>
       </c>
       <c r="E92">
         <v>674</v>
       </c>
       <c r="F92" s="3">
-        <f>AVERAGE(E86:E92)</f>
+        <f t="shared" si="9"/>
         <v>586.85714285714289</v>
       </c>
       <c r="G92" s="11">
-        <f>G91+E92</f>
+        <f t="shared" si="7"/>
         <v>22815</v>
       </c>
     </row>
@@ -2825,22 +2825,22 @@
         <v>3049</v>
       </c>
       <c r="C93" s="3">
-        <f>AVERAGE(B87:B93)</f>
+        <f t="shared" si="8"/>
         <v>2778.4285714285716</v>
       </c>
       <c r="D93" s="11">
-        <f>D92+B93</f>
+        <f t="shared" si="6"/>
         <v>146098</v>
       </c>
       <c r="E93">
         <v>739</v>
       </c>
       <c r="F93" s="3">
-        <f>AVERAGE(E87:E93)</f>
+        <f t="shared" si="9"/>
         <v>594.71428571428567</v>
       </c>
       <c r="G93" s="11">
-        <f>G92+E93</f>
+        <f t="shared" si="7"/>
         <v>23554</v>
       </c>
     </row>
@@ -2852,22 +2852,22 @@
         <v>2750</v>
       </c>
       <c r="C94" s="3">
-        <f>AVERAGE(B88:B94)</f>
+        <f t="shared" si="8"/>
         <v>2659.4285714285716</v>
       </c>
       <c r="D94" s="11">
-        <f>D93+B94</f>
+        <f t="shared" si="6"/>
         <v>148848</v>
       </c>
       <c r="E94" s="16">
         <v>621</v>
       </c>
       <c r="F94" s="3">
-        <f>AVERAGE(E88:E94)</f>
+        <f t="shared" si="9"/>
         <v>567.28571428571433</v>
       </c>
       <c r="G94" s="11">
-        <f>G93+E94</f>
+        <f t="shared" si="7"/>
         <v>24175</v>
       </c>
     </row>
@@ -2879,22 +2879,22 @@
         <v>2441</v>
       </c>
       <c r="C95" s="3">
-        <f>AVERAGE(B89:B95)</f>
+        <f t="shared" si="8"/>
         <v>2624.5714285714284</v>
       </c>
       <c r="D95" s="11">
-        <f>D94+B95</f>
+        <f t="shared" si="6"/>
         <v>151289</v>
       </c>
       <c r="E95" s="16">
         <v>315</v>
       </c>
       <c r="F95" s="3">
-        <f>AVERAGE(E89:E95)</f>
+        <f t="shared" si="9"/>
         <v>553.28571428571433</v>
       </c>
       <c r="G95" s="11">
-        <f>G94+E95</f>
+        <f t="shared" si="7"/>
         <v>24490</v>
       </c>
     </row>
@@ -2906,22 +2906,22 @@
         <v>1918</v>
       </c>
       <c r="C96" s="3">
-        <f>AVERAGE(B90:B96)</f>
+        <f t="shared" si="8"/>
         <v>2508.5714285714284</v>
       </c>
       <c r="D96" s="11">
-        <f>D95+B96</f>
+        <f t="shared" si="6"/>
         <v>153207</v>
       </c>
       <c r="E96" s="18">
         <v>288</v>
       </c>
       <c r="F96" s="3">
-        <f>AVERAGE(E90:E96)</f>
+        <f t="shared" si="9"/>
         <v>543</v>
       </c>
       <c r="G96" s="11">
-        <f>G95+E96</f>
+        <f t="shared" si="7"/>
         <v>24778</v>
       </c>
     </row>
@@ -2933,22 +2933,22 @@
         <v>2203</v>
       </c>
       <c r="C97" s="3">
-        <f>AVERAGE(B91:B97)</f>
+        <f t="shared" si="8"/>
         <v>2472.5714285714284</v>
       </c>
       <c r="D97" s="11">
-        <f>D96+B97</f>
+        <f t="shared" si="6"/>
         <v>155410</v>
       </c>
       <c r="E97" s="16">
         <v>693</v>
       </c>
       <c r="F97" s="3">
-        <f>AVERAGE(E91:E97)</f>
+        <f t="shared" si="9"/>
         <v>558.28571428571433</v>
       </c>
       <c r="G97" s="11">
-        <f>G96+E97</f>
+        <f t="shared" si="7"/>
         <v>25471</v>
       </c>
     </row>
@@ -2960,22 +2960,22 @@
         <v>2031</v>
       </c>
       <c r="C98" s="3">
-        <f>AVERAGE(B92:B98)</f>
+        <f t="shared" si="8"/>
         <v>2493</v>
       </c>
       <c r="D98" s="11">
-        <f>D97+B98</f>
+        <f t="shared" si="6"/>
         <v>157441</v>
       </c>
       <c r="E98">
         <v>649</v>
       </c>
       <c r="F98" s="3">
-        <f>AVERAGE(E92:E98)</f>
+        <f t="shared" si="9"/>
         <v>568.42857142857144</v>
       </c>
       <c r="G98" s="11">
-        <f>G97+E98</f>
+        <f t="shared" si="7"/>
         <v>26120</v>
       </c>
     </row>
@@ -2987,22 +2987,22 @@
         <v>2485</v>
       </c>
       <c r="C99" s="3">
-        <f>AVERAGE(B93:B99)</f>
+        <f t="shared" si="8"/>
         <v>2411</v>
       </c>
       <c r="D99" s="11">
-        <f>D98+B99</f>
+        <f t="shared" si="6"/>
         <v>159926</v>
       </c>
       <c r="E99" s="16">
         <v>539</v>
       </c>
       <c r="F99" s="3">
-        <f>AVERAGE(E93:E99)</f>
+        <f t="shared" si="9"/>
         <v>549.14285714285711</v>
       </c>
       <c r="G99" s="11">
-        <f>G98+E99</f>
+        <f t="shared" si="7"/>
         <v>26659</v>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
         <v>2109</v>
       </c>
       <c r="C100" s="3">
-        <f>AVERAGE(B94:B100)</f>
+        <f t="shared" si="8"/>
         <v>2276.7142857142858</v>
       </c>
       <c r="D100" s="11">
-        <f>D99+B100</f>
+        <f t="shared" si="6"/>
         <v>162035</v>
       </c>
       <c r="E100" s="19">
         <v>626</v>
       </c>
       <c r="F100" s="3">
-        <f>AVERAGE(E94:E100)</f>
+        <f t="shared" si="9"/>
         <v>533</v>
       </c>
       <c r="G100" s="11">
-        <f>G99+E100</f>
+        <f t="shared" si="7"/>
         <v>27285</v>
       </c>
     </row>
@@ -3041,22 +3041,22 @@
         <v>1679</v>
       </c>
       <c r="C101" s="3">
-        <f>AVERAGE(B95:B101)</f>
+        <f t="shared" si="8"/>
         <v>2123.7142857142858</v>
       </c>
       <c r="D101" s="11">
-        <f>D100+B101</f>
+        <f t="shared" si="6"/>
         <v>163714</v>
       </c>
       <c r="E101" s="19">
         <v>346</v>
       </c>
       <c r="F101" s="3">
-        <f>AVERAGE(E95:E101)</f>
+        <f t="shared" si="9"/>
         <v>493.71428571428572</v>
       </c>
       <c r="G101" s="11">
-        <f>G100+E101</f>
+        <f t="shared" si="7"/>
         <v>27631</v>
       </c>
     </row>
@@ -3068,22 +3068,22 @@
         <v>1452</v>
       </c>
       <c r="C102" s="3">
-        <f>AVERAGE(B96:B102)</f>
+        <f t="shared" si="8"/>
         <v>1982.4285714285713</v>
       </c>
       <c r="D102" s="11">
-        <f>D101+B102</f>
+        <f t="shared" si="6"/>
         <v>165166</v>
       </c>
       <c r="E102">
         <v>269</v>
       </c>
       <c r="F102" s="3">
-        <f>AVERAGE(E96:E102)</f>
+        <f t="shared" si="9"/>
         <v>487.14285714285717</v>
       </c>
       <c r="G102" s="11">
-        <f>G101+E102</f>
+        <f t="shared" si="7"/>
         <v>27900</v>
       </c>
     </row>
@@ -3095,23 +3095,50 @@
         <v>1186</v>
       </c>
       <c r="C103" s="3">
-        <f>AVERAGE(B97:B103)</f>
+        <f t="shared" si="8"/>
         <v>1877.8571428571429</v>
       </c>
       <c r="D103" s="11">
-        <f>D102+B103</f>
+        <f t="shared" si="6"/>
         <v>166352</v>
       </c>
       <c r="E103">
         <v>210</v>
       </c>
       <c r="F103" s="3">
-        <f>AVERAGE(E97:E103)</f>
+        <f t="shared" si="9"/>
         <v>476</v>
       </c>
       <c r="G103" s="11">
-        <f>G102+E103</f>
+        <f t="shared" si="7"/>
         <v>28110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B104">
+        <v>1352</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="8"/>
+        <v>1756.2857142857142</v>
+      </c>
+      <c r="D104" s="11">
+        <f t="shared" ref="D104" si="10">D103+B104</f>
+        <v>167704</v>
+      </c>
+      <c r="E104">
+        <v>627</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="9"/>
+        <v>466.57142857142856</v>
+      </c>
+      <c r="G104" s="11">
+        <f t="shared" ref="G104" si="11">G103+E104</f>
+        <v>28737</v>
       </c>
     </row>
   </sheetData>
